--- a/DATA/M025/T1_RADIOMICS_OUTPUT/M025_radiomics2D.xlsx
+++ b/DATA/M025/T1_RADIOMICS_OUTPUT/M025_radiomics2D.xlsx
@@ -13,7 +13,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="118">
+  <si>
+    <t>Patient_ID</t>
+  </si>
+  <si>
+    <t>00678952</t>
+  </si>
+  <si>
+    <t>Family_Name</t>
+  </si>
+  <si>
+    <t>M025</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>ACQ_DATE</t>
+  </si>
+  <si>
+    <t>20190405</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>District1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>SumAverage</t>
+  </si>
+  <si>
+    <t>Variance1</t>
+  </si>
+  <si>
+    <t>Dissimilarity</t>
+  </si>
+  <si>
+    <t>AutoCorrelation</t>
+  </si>
+  <si>
+    <t>Coarseness</t>
+  </si>
+  <si>
+    <t>Contrast1</t>
+  </si>
+  <si>
+    <t>Busyness</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>LRE</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t>RLN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>LGRE</t>
+  </si>
+  <si>
+    <t>HGRE</t>
+  </si>
+  <si>
+    <t>SRLGE</t>
+  </si>
+  <si>
+    <t>SRHGE</t>
+  </si>
+  <si>
+    <t>LRLGE</t>
+  </si>
+  <si>
+    <t>LRHGE</t>
+  </si>
+  <si>
+    <t>GLV</t>
+  </si>
+  <si>
+    <t>RLV</t>
+  </si>
+  <si>
+    <t>SZE</t>
+  </si>
+  <si>
+    <t>LZE</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>ZSN</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>LGZE</t>
+  </si>
+  <si>
+    <t>HGZE</t>
+  </si>
+  <si>
+    <t>SZLG</t>
+  </si>
+  <si>
+    <t>SZHGE</t>
+  </si>
+  <si>
+    <t>LZLGE</t>
+  </si>
+  <si>
+    <t>LZHGE</t>
+  </si>
+  <si>
+    <t>GLV1</t>
+  </si>
+  <si>
+    <t>ZSV</t>
+  </si>
   <si>
     <t>Patient_ID</t>
   </si>
@@ -210,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,13 +396,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,183 +473,183 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -506,7 +685,7 @@
         <v>0.00082191136076740785</v>
       </c>
       <c r="S2" s="0">
-        <v>0.0062787609736139043</v>
+        <v>0.0062787609736139052</v>
       </c>
       <c r="T2" s="0">
         <v>13.237621505458261</v>
@@ -515,7 +694,7 @@
         <v>3103.9486797800273</v>
       </c>
       <c r="V2" s="0">
-        <v>0.0010386492449330092</v>
+        <v>0.0010386492449330094</v>
       </c>
       <c r="W2" s="0">
         <v>0.95209257206832798</v>
@@ -548,7 +727,7 @@
         <v>0.0043385034982487813</v>
       </c>
       <c r="AG2" s="0">
-        <v>3173.9794504285101</v>
+        <v>3173.979450428511</v>
       </c>
       <c r="AH2" s="0">
         <v>0.0042841151973054357</v>
@@ -587,7 +766,7 @@
         <v>0.0043732523009948412</v>
       </c>
       <c r="AT2" s="0">
-        <v>3164.2917847025496</v>
+        <v>3164.2917847025501</v>
       </c>
       <c r="AU2" s="0">
         <v>0.0041048897879546109</v>
@@ -610,25 +789,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H3" s="0">
         <v>2</v>
@@ -664,7 +843,7 @@
         <v>0.00086095795827345861</v>
       </c>
       <c r="S3" s="0">
-        <v>0.005618915271870124</v>
+        <v>0.0056189152718701249</v>
       </c>
       <c r="T3" s="0">
         <v>12.051028505187359</v>
@@ -742,7 +921,7 @@
         <v>0.88009592326139108</v>
       </c>
       <c r="AS3" s="0">
-        <v>0.0016230001538698282</v>
+        <v>0.0016230001538698284</v>
       </c>
       <c r="AT3" s="0">
         <v>3363.8773841961852</v>
@@ -768,25 +947,25 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H4" s="0">
         <v>3</v>
@@ -795,10 +974,10 @@
         <v>186.01211678634698</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.29185538424911417</v>
+        <v>-0.29185538424911522</v>
       </c>
       <c r="K4" s="0">
-        <v>1.101747371997055</v>
+        <v>1.1017473719970576</v>
       </c>
       <c r="L4" s="0">
         <v>471</v>
@@ -831,13 +1010,13 @@
         <v>3688.6274403764401</v>
       </c>
       <c r="V4" s="0">
-        <v>0.017444721339812185</v>
+        <v>0.017444721339812189</v>
       </c>
       <c r="W4" s="0">
         <v>0.71971794942176992</v>
       </c>
       <c r="X4" s="0">
-        <v>0.012572266739431116</v>
+        <v>0.012572266739431114</v>
       </c>
       <c r="Y4" s="0">
         <v>22403.962564173369</v>
@@ -861,10 +1040,10 @@
         <v>0.97224826366907535</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.00072016341991007981</v>
+        <v>0.0007201634199100797</v>
       </c>
       <c r="AG4" s="0">
-        <v>3708.2825271345455</v>
+        <v>3708.2825271345446</v>
       </c>
       <c r="AH4" s="0">
         <v>0.00071209590215401387</v>
@@ -926,25 +1105,25 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H5" s="0">
         <v>4</v>
@@ -953,10 +1132,10 @@
         <v>175.27613622878843</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.67713182625943191</v>
+        <v>-0.67713182625943058</v>
       </c>
       <c r="K5" s="0">
-        <v>1.6045669183430782</v>
+        <v>1.6045669183430764</v>
       </c>
       <c r="L5" s="0">
         <v>477</v>
@@ -980,7 +1159,7 @@
         <v>0.00091428624545723087</v>
       </c>
       <c r="S5" s="0">
-        <v>0.0054376749443905007</v>
+        <v>0.0054376749443905024</v>
       </c>
       <c r="T5" s="0">
         <v>12.626008505150661</v>
@@ -1022,7 +1201,7 @@
         <v>0.0011512098830571559</v>
       </c>
       <c r="AG5" s="0">
-        <v>3816.5314902673163</v>
+        <v>3816.5314902673167</v>
       </c>
       <c r="AH5" s="0">
         <v>0.0010784097828492841</v>
@@ -1058,10 +1237,10 @@
         <v>0.87002096436058673</v>
       </c>
       <c r="AS5" s="0">
-        <v>0.001008174118170595</v>
+        <v>0.0010081741181705952</v>
       </c>
       <c r="AT5" s="0">
-        <v>3811.4891566265064</v>
+        <v>3811.489156626506</v>
       </c>
       <c r="AU5" s="0">
         <v>0.00073152094356454338</v>
@@ -1084,37 +1263,37 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H6" s="0">
         <v>5</v>
       </c>
       <c r="I6" s="0">
-        <v>231.74006574621967</v>
+        <v>231.74006574621964</v>
       </c>
       <c r="J6" s="0">
-        <v>-1.0485481415261244</v>
+        <v>-1.0485481415261226</v>
       </c>
       <c r="K6" s="0">
-        <v>2.0186707768372569</v>
+        <v>2.0186707768372543</v>
       </c>
       <c r="L6" s="0">
         <v>585</v>
@@ -1138,7 +1317,7 @@
         <v>0.00092028789043743472</v>
       </c>
       <c r="S6" s="0">
-        <v>0.0071054548710188055</v>
+        <v>0.0071054548710188072</v>
       </c>
       <c r="T6" s="0">
         <v>13.845046933964145</v>
@@ -1177,7 +1356,7 @@
         <v>0.9721237404366242</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.0035851717509449454</v>
+        <v>0.003585171750944945</v>
       </c>
       <c r="AG6" s="0">
         <v>3894.9325181610548</v>
@@ -1219,7 +1398,7 @@
         <v>0.0032855151246366336</v>
       </c>
       <c r="AT6" s="0">
-        <v>3888.9923518164442</v>
+        <v>3888.9923518164437</v>
       </c>
       <c r="AU6" s="0">
         <v>0.0026599699813959704</v>
@@ -1242,25 +1421,25 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H7" s="0">
         <v>6</v>
@@ -1296,7 +1475,7 @@
         <v>0.00092434349690094302</v>
       </c>
       <c r="S7" s="0">
-        <v>0.0078035787206380269</v>
+        <v>0.0078035787206380261</v>
       </c>
       <c r="T7" s="0">
         <v>13.37171714242522</v>
@@ -1305,13 +1484,13 @@
         <v>3943.8332389838515</v>
       </c>
       <c r="V7" s="0">
-        <v>0.013886683953120331</v>
+        <v>0.01388668395312033</v>
       </c>
       <c r="W7" s="0">
         <v>1.0561153672235293</v>
       </c>
       <c r="X7" s="0">
-        <v>0.012667724875670312</v>
+        <v>0.012667724875670316</v>
       </c>
       <c r="Y7" s="0">
         <v>32411.431147527786</v>
@@ -1338,7 +1517,7 @@
         <v>0.0032374524121931265</v>
       </c>
       <c r="AG7" s="0">
-        <v>3963.1714333487907</v>
+        <v>3963.1714333487903</v>
       </c>
       <c r="AH7" s="0">
         <v>0.0031497253725103081</v>
@@ -1374,7 +1553,7 @@
         <v>0.88157894736842113</v>
       </c>
       <c r="AS7" s="0">
-        <v>0.0031616537301046338</v>
+        <v>0.0031616537301046342</v>
       </c>
       <c r="AT7" s="0">
         <v>3924.6623134328356</v>
@@ -1400,25 +1579,25 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H8" s="0">
         <v>7</v>
@@ -1496,7 +1675,7 @@
         <v>0.0064076182046303096</v>
       </c>
       <c r="AG8" s="0">
-        <v>4019.276632521186</v>
+        <v>4019.2766325211855</v>
       </c>
       <c r="AH8" s="0">
         <v>0.0061407034255059742</v>
@@ -1532,10 +1711,10 @@
         <v>0.90507364975450066</v>
       </c>
       <c r="AS8" s="0">
-        <v>0.0054492405553487706</v>
+        <v>0.0054492405553487715</v>
       </c>
       <c r="AT8" s="0">
-        <v>3978.8245931283909</v>
+        <v>3978.8245931283905</v>
       </c>
       <c r="AU8" s="0">
         <v>0.0040638933583596734</v>
@@ -1558,37 +1737,37 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H9" s="0">
         <v>8</v>
       </c>
       <c r="I9" s="0">
-        <v>169.6525209566075</v>
+        <v>169.65252095660745</v>
       </c>
       <c r="J9" s="0">
-        <v>-1.3729662221036383</v>
+        <v>-1.3729662221036354</v>
       </c>
       <c r="K9" s="0">
-        <v>3.2055640935556218</v>
+        <v>3.2055640935556182</v>
       </c>
       <c r="L9" s="0">
         <v>624</v>
@@ -1612,7 +1791,7 @@
         <v>0.00093179624393572853</v>
       </c>
       <c r="S9" s="0">
-        <v>0.006735693394012629</v>
+        <v>0.0067356933940126316</v>
       </c>
       <c r="T9" s="0">
         <v>13.816412724073363</v>
@@ -1693,7 +1872,7 @@
         <v>0.0043127545940755945</v>
       </c>
       <c r="AT9" s="0">
-        <v>3889.1992882562281</v>
+        <v>3889.1992882562276</v>
       </c>
       <c r="AU9" s="0">
         <v>0.0042665238956285786</v>
@@ -1716,25 +1895,25 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H10" s="0">
         <v>9</v>
@@ -1779,13 +1958,13 @@
         <v>3881.4474242985034</v>
       </c>
       <c r="V10" s="0">
-        <v>0.014451515424130481</v>
+        <v>0.014451515424130484</v>
       </c>
       <c r="W10" s="0">
         <v>0.90117321331500366</v>
       </c>
       <c r="X10" s="0">
-        <v>0.012227264956855071</v>
+        <v>0.012227264956855069</v>
       </c>
       <c r="Y10" s="0">
         <v>29430.670755080479</v>
@@ -1874,37 +2053,37 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H11" s="0">
         <v>10</v>
       </c>
       <c r="I11" s="0">
-        <v>188.30994897959181</v>
+        <v>188.30994897959184</v>
       </c>
       <c r="J11" s="0">
-        <v>-1.0798345663924356</v>
+        <v>-1.0798345663924387</v>
       </c>
       <c r="K11" s="0">
-        <v>2.1174758598051477</v>
+        <v>2.1174758598051513</v>
       </c>
       <c r="L11" s="0">
         <v>588</v>
@@ -1928,7 +2107,7 @@
         <v>0.00091330710311583903</v>
       </c>
       <c r="S11" s="0">
-        <v>0.0058201042804360437</v>
+        <v>0.0058201042804360429</v>
       </c>
       <c r="T11" s="0">
         <v>12.769779816138495</v>
@@ -1970,7 +2149,7 @@
         <v>0.0016591358996568969</v>
       </c>
       <c r="AG11" s="0">
-        <v>3792.8785315239465</v>
+        <v>3792.878531523947</v>
       </c>
       <c r="AH11" s="0">
         <v>0.0016415308980993499</v>
@@ -2009,7 +2188,7 @@
         <v>0.0017576964994110394</v>
       </c>
       <c r="AT11" s="0">
-        <v>3752.4824902723735</v>
+        <v>3752.482490272374</v>
       </c>
       <c r="AU11" s="0">
         <v>0.001681733842863572</v>
@@ -2032,25 +2211,25 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H12" s="0">
         <v>11</v>
@@ -2086,7 +2265,7 @@
         <v>0.00090484451275444798</v>
       </c>
       <c r="S12" s="0">
-        <v>0.0054973666889254012</v>
+        <v>0.005497366688925402</v>
       </c>
       <c r="T12" s="0">
         <v>12.942252768639804</v>
@@ -2125,7 +2304,7 @@
         <v>0.97128064504009459</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.0028917844141427584</v>
+        <v>0.0028917844141427588</v>
       </c>
       <c r="AG12" s="0">
         <v>3695.5316466792333</v>
@@ -2167,7 +2346,7 @@
         <v>0.0031318411974500544</v>
       </c>
       <c r="AT12" s="0">
-        <v>3660.0389863547753</v>
+        <v>3660.0389863547757</v>
       </c>
       <c r="AU12" s="0">
         <v>0.0031079222143659498</v>
@@ -2190,25 +2369,25 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H13" s="0">
         <v>12</v>
@@ -2253,13 +2432,13 @@
         <v>3697.5292624085259</v>
       </c>
       <c r="V13" s="0">
-        <v>0.015199532652462735</v>
+        <v>0.015199532652462738</v>
       </c>
       <c r="W13" s="0">
         <v>0.94657232784030654</v>
       </c>
       <c r="X13" s="0">
-        <v>0.011994933369407533</v>
+        <v>0.011994933369407532</v>
       </c>
       <c r="Y13" s="0">
         <v>31408.821309568961</v>
@@ -2283,7 +2462,7 @@
         <v>0.97654857768815906</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.004482349300978284</v>
+        <v>0.0044823493009782832</v>
       </c>
       <c r="AG13" s="0">
         <v>3745.0701393405789</v>
@@ -2348,25 +2527,25 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H14" s="0">
         <v>13</v>
@@ -2444,7 +2623,7 @@
         <v>0.0023794346779739293</v>
       </c>
       <c r="AG14" s="0">
-        <v>3783.8240443855698</v>
+        <v>3783.8240443855702</v>
       </c>
       <c r="AH14" s="0">
         <v>0.0023397173231358018</v>
@@ -2483,7 +2662,7 @@
         <v>0.0023389014443931742</v>
       </c>
       <c r="AT14" s="0">
-        <v>3791.8178053830229</v>
+        <v>3791.8178053830225</v>
       </c>
       <c r="AU14" s="0">
         <v>0.0021461563727717173</v>
@@ -2506,25 +2685,25 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H15" s="0">
         <v>14</v>
@@ -2560,7 +2739,7 @@
         <v>0.0009819593654782847</v>
       </c>
       <c r="S15" s="0">
-        <v>0.006749499587562424</v>
+        <v>0.0067494995875624249</v>
       </c>
       <c r="T15" s="0">
         <v>15.345814301264316</v>
@@ -2599,7 +2778,7 @@
         <v>0.97235741521310803</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.0046214399665967052</v>
+        <v>0.0046214399665967061</v>
       </c>
       <c r="AG15" s="0">
         <v>4319.4671050041579</v>
@@ -2664,25 +2843,25 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H16" s="0">
         <v>15</v>
@@ -2727,13 +2906,13 @@
         <v>4198.7063064926861</v>
       </c>
       <c r="V16" s="0">
-        <v>0.019150577381858044</v>
+        <v>0.019150577381858047</v>
       </c>
       <c r="W16" s="0">
         <v>1.3706001674453956</v>
       </c>
       <c r="X16" s="0">
-        <v>0.0099724404822503481</v>
+        <v>0.0099724404822503464</v>
       </c>
       <c r="Y16" s="0">
         <v>32590.16483526702</v>
@@ -2796,7 +2975,7 @@
         <v>0.9027027027027027</v>
       </c>
       <c r="AS16" s="0">
-        <v>0.0051997844743670359</v>
+        <v>0.0051997844743670368</v>
       </c>
       <c r="AT16" s="0">
         <v>4160.1407185628741</v>
@@ -2822,25 +3001,25 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H17" s="0">
         <v>16</v>
@@ -2876,7 +3055,7 @@
         <v>0.00095585474895509739</v>
       </c>
       <c r="S17" s="0">
-        <v>0.0059217187581940139</v>
+        <v>0.0059217187581940148</v>
       </c>
       <c r="T17" s="0">
         <v>14.171602179406712</v>
@@ -2918,7 +3097,7 @@
         <v>0.00099630118545989787</v>
       </c>
       <c r="AG17" s="0">
-        <v>3995.6399840218987</v>
+        <v>3995.6399840218992</v>
       </c>
       <c r="AH17" s="0">
         <v>0.00096609791114323493</v>
@@ -2954,7 +3133,7 @@
         <v>0.90635451505016729</v>
       </c>
       <c r="AS17" s="0">
-        <v>0.00092198773395794074</v>
+        <v>0.00092198773395794063</v>
       </c>
       <c r="AT17" s="0">
         <v>3952.1586715867161</v>
@@ -2980,25 +3159,25 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H18" s="0">
         <v>17</v>
@@ -3138,25 +3317,25 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H19" s="0">
         <v>18</v>
@@ -3234,7 +3413,7 @@
         <v>0.0019342371454732566</v>
       </c>
       <c r="AG19" s="0">
-        <v>3429.3001216483949</v>
+        <v>3429.3001216483954</v>
       </c>
       <c r="AH19" s="0">
         <v>0.0019284587447417727</v>
@@ -3273,7 +3452,7 @@
         <v>0.0020704367529501976</v>
       </c>
       <c r="AT19" s="0">
-        <v>3351.0952380952381</v>
+        <v>3351.0952380952376</v>
       </c>
       <c r="AU19" s="0">
         <v>0.002043867606120455</v>
@@ -3296,37 +3475,37 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H20" s="0">
         <v>19</v>
       </c>
       <c r="I20" s="0">
-        <v>503.55478395061726</v>
+        <v>503.55478395061715</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.5626212332771543</v>
+        <v>-0.56262123327715408</v>
       </c>
       <c r="K20" s="0">
-        <v>-0.26514793367003575</v>
+        <v>-0.26514793367003486</v>
       </c>
       <c r="L20" s="0">
         <v>72</v>
@@ -3350,7 +3529,7 @@
         <v>0.00061047471586050917</v>
       </c>
       <c r="S20" s="0">
-        <v>0.005574267926576195</v>
+        <v>0.0055742679265761968</v>
       </c>
       <c r="T20" s="0">
         <v>15.92933127311052</v>
@@ -3454,37 +3633,37 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H21" s="0">
         <v>20</v>
       </c>
       <c r="I21" s="0">
-        <v>557.74082644628095</v>
+        <v>557.74082644628106</v>
       </c>
       <c r="J21" s="0">
-        <v>0.21800186276163186</v>
+        <v>0.21800186276163266</v>
       </c>
       <c r="K21" s="0">
-        <v>-0.59149139341337742</v>
+        <v>-0.59149139341337653</v>
       </c>
       <c r="L21" s="0">
         <v>55</v>
@@ -3547,7 +3726,7 @@
         <v>0.76169815058548695</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.40498301425299038</v>
+        <v>0.40498301425299033</v>
       </c>
       <c r="AG21" s="0">
         <v>21.873416941474687</v>
@@ -3612,25 +3791,25 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H22" s="0">
         <v>21</v>
